--- a/input/invoice.xlsx
+++ b/input/invoice.xlsx
@@ -23,9 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
-  <si>
-    <t>Внимание! Счет действителен до 04.10.2019. 
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+  <si>
+    <t>Внимание! Счет действителен до 13.04.2020. 
 Оплата данного счета означает согласие с условиями поставки товара. 
 Уведомление об оплате обязательно, в противном случае не гарантируется
 наличие товара на складе. Товар отпускается по факту прихода денег 
@@ -35,19 +35,19 @@
     <t>Образец заполнения платежного поручения</t>
   </si>
   <si>
-    <t>ПАО "ПРОМСВЯЗЬБАНК" г. Москва</t>
+    <t>ТОЧКА ПАО БАНКА "ФК ОТКРЫТИЕ" г. Москва</t>
   </si>
   <si>
     <t>БИК</t>
   </si>
   <si>
-    <t>044525555</t>
+    <t>044525999</t>
   </si>
   <si>
     <t>Сч. №</t>
   </si>
   <si>
-    <t>30101810400000000555</t>
+    <t>30101810845250000999</t>
   </si>
   <si>
     <t>Банк получателя</t>
@@ -65,7 +65,7 @@
     <t>771401001</t>
   </si>
   <si>
-    <t>40702810500000110422</t>
+    <t>40702810901500029922</t>
   </si>
   <si>
     <t>ООО "ОМЕГА"</t>
@@ -92,7 +92,7 @@
     <t>Код</t>
   </si>
   <si>
-    <t>ЗК19100ОЦБ0004560001</t>
+    <t>ЗК20040ОЦБ0001710000</t>
   </si>
   <si>
     <t>Рез. поле</t>
@@ -101,13 +101,13 @@
     <t>Получатель</t>
   </si>
   <si>
-    <t>Оплата по заказу клиента №ЦБ-456</t>
+    <t>Оплата по заказу клиента №ЦБ-171</t>
   </si>
   <si>
     <t>Назначение платежа</t>
   </si>
   <si>
-    <t>Счет на оплату № ЦБ-456 от 4 октября 2019 г.</t>
+    <t>Счет на оплату № ЦБ-171 от 13 апреля 2020 г.</t>
   </si>
   <si>
     <t>Поставщик:</t>
@@ -119,7 +119,7 @@
     <t>Покупатель:</t>
   </si>
   <si>
-    <t>ООО «Вайлдберриз», ИНН 7721546864, КПП 997750001, 142715, Московская область, Ленинский р-н, с/п Развилковское, д. Мильково вл.1</t>
+    <t>ООО «ОнЛайн Трейд», ИНН 7735092378, КПП 773401001, 123182, Москва, ул. Щукинская, д 2, этаж 3, помещение 50</t>
   </si>
   <si>
     <t>№</t>
@@ -143,85 +143,25 @@
     <t>Сумма</t>
   </si>
   <si>
-    <t>Sagami Original Гель-смазка (60 гр.)</t>
+    <t>Uberlube (50 мл) флакон-спрей лубрикант для интимной гигиены</t>
   </si>
   <si>
     <t>шт</t>
   </si>
   <si>
-    <t>Презервативы полиуретановые Sagami Original 002 1'S</t>
-  </si>
-  <si>
-    <t>Презервативы латексные Sagami Xtreme Mint 10'S</t>
-  </si>
-  <si>
-    <t>Uberlube (50 мл) флакон-спрей лубрикант для интимной гигиены</t>
-  </si>
-  <si>
-    <t>Презервативы полиуретановые Sagami Original 002 2'S</t>
-  </si>
-  <si>
-    <t>Презервативы полиуретановые Sagami Original 002 12'S</t>
-  </si>
-  <si>
-    <t>Презервативы латексные Sagami Xtreme 0.04mm 3'S</t>
-  </si>
-  <si>
-    <t>Презервативы полиуретановые Sagami Original 002 6'S Quick</t>
+    <t>Sagami Original Water 99% Гель (60 г)</t>
   </si>
   <si>
     <t>Презервативы латексные Sagami Miracle Fit 5'S</t>
   </si>
   <si>
-    <t>Презервативы латексные Sagami Xtreme Type-E 3'S</t>
-  </si>
-  <si>
     <t>Презервативы полиуретановые Sagami Original 002 6'S</t>
   </si>
   <si>
-    <t>Презервативы латексные Sagami Hot Kiss 5'S</t>
-  </si>
-  <si>
     <t>Презервативы латексные Sagami Xtreme 0.04mm 15'S</t>
   </si>
   <si>
-    <t>Презервативы латексные Sagami Xtreme COLA Flavor 0.04mm 3'S</t>
-  </si>
-  <si>
-    <t>Презервативы латексные Sagami Squeeze 5'S</t>
-  </si>
-  <si>
-    <t>Презервативы латексные Sagami Studded Lemonade 5'S</t>
-  </si>
-  <si>
-    <t>Презервативы латексные Sagami Xtreme 0.04mm 24'S</t>
-  </si>
-  <si>
-    <t>Презервативы латексные Sagami Xtreme Energy 3'S</t>
-  </si>
-  <si>
-    <t>Презервативы латексные Sagami Xtreme Feel UP 10'S</t>
-  </si>
-  <si>
-    <t>Набор Uberlube Good-to-Go (2 флакона 15 мл)</t>
-  </si>
-  <si>
-    <t>Презервативы полиуретановые Sagami Original 001 5'S</t>
-  </si>
-  <si>
-    <t>Набор Uberlube Good-to-Go серебристого цвета (флакон 15 мл+кейс)</t>
-  </si>
-  <si>
-    <t>ГЕЛЬ SAGAMI ORIGINAL 99% (60 г)</t>
-  </si>
-  <si>
-    <t>Uberlube (100 мл) флакон-спрей лубрикант для интимной гигиены</t>
-  </si>
-  <si>
-    <t>Презервативы латексные Sagami Xtreme Ultrasafe 10'S</t>
-  </si>
-  <si>
-    <t>Презервативы полиуретановые Sagami Original 002 3'S</t>
+    <t>Презервативы латексные Sagami Hot Kiss 10'S</t>
   </si>
   <si>
     <t>Итого:</t>
@@ -236,10 +176,10 @@
     <t>Итого с НДС:</t>
   </si>
   <si>
-    <t>Всего наименований 26, на сумму 455 240,00 руб.</t>
-  </si>
-  <si>
-    <t>Четыреста пятьдесят пять тысяч двести сорок рублей 00 копеек</t>
+    <t>Всего наименований 6, на сумму 22 450,00 руб.</t>
+  </si>
+  <si>
+    <t>Двадцать две тысячи четыреста пятьдесят рублей 00 копеек</t>
   </si>
   <si>
     <t>Генеральный директор</t>
@@ -627,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf/>
     <xf applyAlignment="true">
       <alignment horizontal="left"/>
@@ -810,6 +750,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="3" applyNumberFormat="true" applyFont="true" applyAlignment="true">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" applyNumberFormat="true" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf fontId="4" applyFont="true" applyAlignment="true">
@@ -855,7 +798,7 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr autoPageBreaks="false" fitToPage="true"/>
   </sheetPr>
-  <dimension ref="AS68"/>
+  <dimension ref="AS48"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
@@ -1788,7 +1731,7 @@
       <c r="R25" s="51" t="e"/>
       <c r="S25" s="51" t="e"/>
       <c r="T25" s="52" t="n">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="U25" s="52" t="e"/>
       <c r="V25" s="53" t="s">
@@ -1797,7 +1740,7 @@
       <c r="W25" s="53" t="e"/>
       <c r="X25" s="53" t="e"/>
       <c r="Y25" s="54" t="n">
-        <v>590</v>
+        <v>890</v>
       </c>
       <c r="Z25" s="54" t="e"/>
       <c r="AA25" s="54" t="e"/>
@@ -1809,13 +1752,13 @@
       <c r="AE25" s="55" t="e"/>
       <c r="AF25" s="55" t="e"/>
       <c r="AG25" s="56" t="n">
-        <v>6293.33</v>
+        <v>1483.33</v>
       </c>
       <c r="AH25" s="56" t="e"/>
       <c r="AI25" s="56" t="e"/>
       <c r="AJ25" s="56" t="e"/>
       <c r="AK25" s="57" t="n">
-        <v>37760</v>
+        <v>8900</v>
       </c>
       <c r="AL25" s="57" t="e"/>
       <c r="AM25" s="57" t="e"/>
@@ -1849,7 +1792,7 @@
       <c r="R26" s="51" t="e"/>
       <c r="S26" s="51" t="e"/>
       <c r="T26" s="52" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="U26" s="52" t="e"/>
       <c r="V26" s="53" t="s">
@@ -1858,25 +1801,25 @@
       <c r="W26" s="53" t="e"/>
       <c r="X26" s="53" t="e"/>
       <c r="Y26" s="54" t="n">
-        <v>150</v>
+        <v>640</v>
       </c>
       <c r="Z26" s="54" t="e"/>
       <c r="AA26" s="54" t="e"/>
       <c r="AB26" s="54" t="e"/>
       <c r="AC26" s="55" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AD26" s="55" t="e"/>
       <c r="AE26" s="55" t="e"/>
       <c r="AF26" s="55" t="e"/>
       <c r="AG26" s="54" t="n">
-        <v>681.82</v>
+        <v>533.33</v>
       </c>
       <c r="AH26" s="54" t="e"/>
       <c r="AI26" s="54" t="e"/>
       <c r="AJ26" s="54" t="e"/>
       <c r="AK26" s="57" t="n">
-        <v>7500</v>
+        <v>3200</v>
       </c>
       <c r="AL26" s="57" t="e"/>
       <c r="AM26" s="57" t="e"/>
@@ -1910,7 +1853,7 @@
       <c r="R27" s="51" t="e"/>
       <c r="S27" s="51" t="e"/>
       <c r="T27" s="52" t="n">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="U27" s="52" t="e"/>
       <c r="V27" s="53" t="s">
@@ -1919,7 +1862,7 @@
       <c r="W27" s="53" t="e"/>
       <c r="X27" s="53" t="e"/>
       <c r="Y27" s="54" t="n">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="Z27" s="54" t="e"/>
       <c r="AA27" s="54" t="e"/>
@@ -1930,14 +1873,14 @@
       <c r="AD27" s="55" t="e"/>
       <c r="AE27" s="55" t="e"/>
       <c r="AF27" s="55" t="e"/>
-      <c r="AG27" s="56" t="n">
-        <v>4712.73</v>
-      </c>
-      <c r="AH27" s="56" t="e"/>
-      <c r="AI27" s="56" t="e"/>
-      <c r="AJ27" s="56" t="e"/>
+      <c r="AG27" s="54" t="n">
+        <v>104.55</v>
+      </c>
+      <c r="AH27" s="54" t="e"/>
+      <c r="AI27" s="54" t="e"/>
+      <c r="AJ27" s="54" t="e"/>
       <c r="AK27" s="57" t="n">
-        <v>51840</v>
+        <v>1150</v>
       </c>
       <c r="AL27" s="57" t="e"/>
       <c r="AM27" s="57" t="e"/>
@@ -1971,7 +1914,7 @@
       <c r="R28" s="51" t="e"/>
       <c r="S28" s="51" t="e"/>
       <c r="T28" s="52" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="U28" s="52" t="e"/>
       <c r="V28" s="53" t="s">
@@ -1980,25 +1923,25 @@
       <c r="W28" s="53" t="e"/>
       <c r="X28" s="53" t="e"/>
       <c r="Y28" s="54" t="n">
-        <v>770</v>
+        <v>860</v>
       </c>
       <c r="Z28" s="54" t="e"/>
       <c r="AA28" s="54" t="e"/>
       <c r="AB28" s="54" t="e"/>
       <c r="AC28" s="55" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AD28" s="55" t="e"/>
       <c r="AE28" s="55" t="e"/>
       <c r="AF28" s="55" t="e"/>
-      <c r="AG28" s="56" t="n">
-        <v>4620</v>
-      </c>
-      <c r="AH28" s="56" t="e"/>
-      <c r="AI28" s="56" t="e"/>
-      <c r="AJ28" s="56" t="e"/>
+      <c r="AG28" s="54" t="n">
+        <v>390.91</v>
+      </c>
+      <c r="AH28" s="54" t="e"/>
+      <c r="AI28" s="54" t="e"/>
+      <c r="AJ28" s="54" t="e"/>
       <c r="AK28" s="57" t="n">
-        <v>27720</v>
+        <v>4300</v>
       </c>
       <c r="AL28" s="57" t="e"/>
       <c r="AM28" s="57" t="e"/>
@@ -2032,7 +1975,7 @@
       <c r="R29" s="51" t="e"/>
       <c r="S29" s="51" t="e"/>
       <c r="T29" s="52" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="U29" s="52" t="e"/>
       <c r="V29" s="53" t="s">
@@ -2041,7 +1984,7 @@
       <c r="W29" s="53" t="e"/>
       <c r="X29" s="53" t="e"/>
       <c r="Y29" s="54" t="n">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="Z29" s="54" t="e"/>
       <c r="AA29" s="54" t="e"/>
@@ -2052,14 +1995,14 @@
       <c r="AD29" s="55" t="e"/>
       <c r="AE29" s="55" t="e"/>
       <c r="AF29" s="55" t="e"/>
-      <c r="AG29" s="56" t="n">
-        <v>1431.82</v>
-      </c>
-      <c r="AH29" s="56" t="e"/>
-      <c r="AI29" s="56" t="e"/>
-      <c r="AJ29" s="56" t="e"/>
+      <c r="AG29" s="54" t="n">
+        <v>245.45</v>
+      </c>
+      <c r="AH29" s="54" t="e"/>
+      <c r="AI29" s="54" t="e"/>
+      <c r="AJ29" s="54" t="e"/>
       <c r="AK29" s="57" t="n">
-        <v>15750</v>
+        <v>2700</v>
       </c>
       <c r="AL29" s="57" t="e"/>
       <c r="AM29" s="57" t="e"/>
@@ -2093,7 +2036,7 @@
       <c r="R30" s="51" t="e"/>
       <c r="S30" s="51" t="e"/>
       <c r="T30" s="52" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="U30" s="52" t="e"/>
       <c r="V30" s="53" t="s">
@@ -2101,26 +2044,26 @@
       </c>
       <c r="W30" s="53" t="e"/>
       <c r="X30" s="53" t="e"/>
-      <c r="Y30" s="56" t="n">
-        <v>1490</v>
-      </c>
-      <c r="Z30" s="56" t="e"/>
-      <c r="AA30" s="56" t="e"/>
-      <c r="AB30" s="56" t="e"/>
+      <c r="Y30" s="54" t="n">
+        <v>440</v>
+      </c>
+      <c r="Z30" s="54" t="e"/>
+      <c r="AA30" s="54" t="e"/>
+      <c r="AB30" s="54" t="e"/>
       <c r="AC30" s="55" t="n">
         <v>10</v>
       </c>
       <c r="AD30" s="55" t="e"/>
       <c r="AE30" s="55" t="e"/>
       <c r="AF30" s="55" t="e"/>
-      <c r="AG30" s="56" t="n">
-        <v>3250.91</v>
-      </c>
-      <c r="AH30" s="56" t="e"/>
-      <c r="AI30" s="56" t="e"/>
-      <c r="AJ30" s="56" t="e"/>
+      <c r="AG30" s="54" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH30" s="54" t="e"/>
+      <c r="AI30" s="54" t="e"/>
+      <c r="AJ30" s="54" t="e"/>
       <c r="AK30" s="57" t="n">
-        <v>35760</v>
+        <v>2200</v>
       </c>
       <c r="AL30" s="57" t="e"/>
       <c r="AM30" s="57" t="e"/>
@@ -2130,1610 +2073,407 @@
       <c r="AQ30" s="57" t="e"/>
       <c r="AR30" s="57" t="e"/>
     </row>
-    <row r="31" ht="11" customHeight="true">
-      <c r="B31" s="50" t="n">
-        <v>7</v>
-      </c>
-      <c r="C31" s="50" t="e"/>
-      <c r="D31" s="51" t="s">
+    <row r="31" ht="5" customHeight="true" s="1" customFormat="true">
+      <c r="B31" s="58" t="e"/>
+      <c r="C31" s="58" t="e"/>
+      <c r="D31" s="58" t="e"/>
+      <c r="E31" s="58" t="e"/>
+      <c r="F31" s="58" t="e"/>
+      <c r="G31" s="58" t="e"/>
+      <c r="H31" s="58" t="e"/>
+      <c r="I31" s="58" t="e"/>
+      <c r="J31" s="58" t="e"/>
+      <c r="K31" s="58" t="e"/>
+      <c r="L31" s="58" t="e"/>
+      <c r="M31" s="58" t="e"/>
+      <c r="N31" s="58" t="e"/>
+      <c r="O31" s="58" t="e"/>
+      <c r="P31" s="58" t="e"/>
+      <c r="Q31" s="58" t="e"/>
+      <c r="R31" s="58" t="e"/>
+      <c r="S31" s="58" t="e"/>
+      <c r="T31" s="58" t="e"/>
+      <c r="U31" s="58" t="e"/>
+      <c r="V31" s="58" t="e"/>
+      <c r="W31" s="58" t="e"/>
+      <c r="X31" s="58" t="e"/>
+      <c r="Y31" s="58" t="e"/>
+      <c r="Z31" s="58" t="e"/>
+      <c r="AA31" s="58" t="e"/>
+      <c r="AB31" s="58" t="e"/>
+      <c r="AC31" s="58" t="e"/>
+      <c r="AD31" s="58" t="e"/>
+      <c r="AE31" s="58" t="e"/>
+      <c r="AF31" s="58" t="e"/>
+      <c r="AG31" s="58" t="e"/>
+      <c r="AH31" s="58" t="e"/>
+      <c r="AI31" s="58" t="e"/>
+      <c r="AJ31" s="58" t="e"/>
+      <c r="AK31" s="58" t="e"/>
+      <c r="AL31" s="58" t="e"/>
+      <c r="AM31" s="58" t="e"/>
+      <c r="AN31" s="58" t="e"/>
+      <c r="AO31" s="58" t="e"/>
+      <c r="AP31" s="58" t="e"/>
+      <c r="AQ31" s="58" t="e"/>
+      <c r="AR31" s="58" t="e"/>
+    </row>
+    <row r="32" ht="13" customHeight="true">
+      <c r="AG32" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="51" t="e"/>
-      <c r="F31" s="51" t="e"/>
-      <c r="G31" s="51" t="e"/>
-      <c r="H31" s="51" t="e"/>
-      <c r="I31" s="51" t="e"/>
-      <c r="J31" s="51" t="e"/>
-      <c r="K31" s="51" t="e"/>
-      <c r="L31" s="51" t="e"/>
-      <c r="M31" s="51" t="e"/>
-      <c r="N31" s="51" t="e"/>
-      <c r="O31" s="51" t="e"/>
-      <c r="P31" s="51" t="e"/>
-      <c r="Q31" s="51" t="e"/>
-      <c r="R31" s="51" t="e"/>
-      <c r="S31" s="51" t="e"/>
-      <c r="T31" s="52" t="n">
-        <v>30</v>
-      </c>
-      <c r="U31" s="52" t="e"/>
-      <c r="V31" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W31" s="53" t="e"/>
-      <c r="X31" s="53" t="e"/>
-      <c r="Y31" s="54" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z31" s="54" t="e"/>
-      <c r="AA31" s="54" t="e"/>
-      <c r="AB31" s="54" t="e"/>
-      <c r="AC31" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD31" s="55" t="e"/>
-      <c r="AE31" s="55" t="e"/>
-      <c r="AF31" s="55" t="e"/>
-      <c r="AG31" s="54" t="n">
-        <v>381.82</v>
-      </c>
-      <c r="AH31" s="54" t="e"/>
-      <c r="AI31" s="54" t="e"/>
-      <c r="AJ31" s="54" t="e"/>
-      <c r="AK31" s="57" t="n">
-        <v>4200</v>
-      </c>
-      <c r="AL31" s="57" t="e"/>
-      <c r="AM31" s="57" t="e"/>
-      <c r="AN31" s="57" t="e"/>
-      <c r="AO31" s="57" t="e"/>
-      <c r="AP31" s="57" t="e"/>
-      <c r="AQ31" s="57" t="e"/>
-      <c r="AR31" s="57" t="e"/>
-    </row>
-    <row r="32" ht="11" customHeight="true">
-      <c r="B32" s="50" t="n">
-        <v>8</v>
-      </c>
-      <c r="C32" s="50" t="e"/>
-      <c r="D32" s="51" t="s">
+      <c r="AH32" s="59" t="e"/>
+      <c r="AI32" s="59" t="e"/>
+      <c r="AJ32" s="59" t="e"/>
+      <c r="AK32" s="60" t="n">
+        <v>22450</v>
+      </c>
+      <c r="AL32" s="60" t="e"/>
+      <c r="AM32" s="60" t="e"/>
+      <c r="AN32" s="60" t="e"/>
+      <c r="AO32" s="60" t="e"/>
+      <c r="AP32" s="60" t="e"/>
+      <c r="AQ32" s="60" t="e"/>
+      <c r="AR32" s="60" t="e"/>
+    </row>
+    <row r="33" ht="13" customHeight="true">
+      <c r="AJ33" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="51" t="e"/>
-      <c r="F32" s="51" t="e"/>
-      <c r="G32" s="51" t="e"/>
-      <c r="H32" s="51" t="e"/>
-      <c r="I32" s="51" t="e"/>
-      <c r="J32" s="51" t="e"/>
-      <c r="K32" s="51" t="e"/>
-      <c r="L32" s="51" t="e"/>
-      <c r="M32" s="51" t="e"/>
-      <c r="N32" s="51" t="e"/>
-      <c r="O32" s="51" t="e"/>
-      <c r="P32" s="51" t="e"/>
-      <c r="Q32" s="51" t="e"/>
-      <c r="R32" s="51" t="e"/>
-      <c r="S32" s="51" t="e"/>
-      <c r="T32" s="52" t="n">
-        <v>24</v>
-      </c>
-      <c r="U32" s="52" t="e"/>
-      <c r="V32" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W32" s="53" t="e"/>
-      <c r="X32" s="53" t="e"/>
-      <c r="Y32" s="54" t="n">
-        <v>880</v>
-      </c>
-      <c r="Z32" s="54" t="e"/>
-      <c r="AA32" s="54" t="e"/>
-      <c r="AB32" s="54" t="e"/>
-      <c r="AC32" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD32" s="55" t="e"/>
-      <c r="AE32" s="55" t="e"/>
-      <c r="AF32" s="55" t="e"/>
-      <c r="AG32" s="56" t="n">
-        <v>1920</v>
-      </c>
-      <c r="AH32" s="56" t="e"/>
-      <c r="AI32" s="56" t="e"/>
-      <c r="AJ32" s="56" t="e"/>
-      <c r="AK32" s="57" t="n">
-        <v>21120</v>
-      </c>
-      <c r="AL32" s="57" t="e"/>
-      <c r="AM32" s="57" t="e"/>
-      <c r="AN32" s="57" t="e"/>
-      <c r="AO32" s="57" t="e"/>
-      <c r="AP32" s="57" t="e"/>
-      <c r="AQ32" s="57" t="e"/>
-      <c r="AR32" s="57" t="e"/>
-    </row>
-    <row r="33" ht="11" customHeight="true">
-      <c r="B33" s="50" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" s="50" t="e"/>
-      <c r="D33" s="51" t="s">
+      <c r="AK33" s="61" t="n">
+        <v>2016.66</v>
+      </c>
+      <c r="AL33" s="61" t="e"/>
+      <c r="AM33" s="61" t="e"/>
+      <c r="AN33" s="61" t="e"/>
+      <c r="AO33" s="61" t="e"/>
+      <c r="AP33" s="61" t="e"/>
+      <c r="AQ33" s="61" t="e"/>
+    </row>
+    <row r="34" ht="13" customHeight="true">
+      <c r="AJ34" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="51" t="e"/>
-      <c r="F33" s="51" t="e"/>
-      <c r="G33" s="51" t="e"/>
-      <c r="H33" s="51" t="e"/>
-      <c r="I33" s="51" t="e"/>
-      <c r="J33" s="51" t="e"/>
-      <c r="K33" s="51" t="e"/>
-      <c r="L33" s="51" t="e"/>
-      <c r="M33" s="51" t="e"/>
-      <c r="N33" s="51" t="e"/>
-      <c r="O33" s="51" t="e"/>
-      <c r="P33" s="51" t="e"/>
-      <c r="Q33" s="51" t="e"/>
-      <c r="R33" s="51" t="e"/>
-      <c r="S33" s="51" t="e"/>
-      <c r="T33" s="52" t="n">
+      <c r="AK34" s="62" t="n">
+        <v>940.91</v>
+      </c>
+      <c r="AL34" s="62" t="e"/>
+      <c r="AM34" s="62" t="e"/>
+      <c r="AN34" s="62" t="e"/>
+      <c r="AO34" s="62" t="e"/>
+      <c r="AP34" s="62" t="e"/>
+      <c r="AQ34" s="62" t="e"/>
+    </row>
+    <row r="35" ht="13" customHeight="true">
+      <c r="AE35" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF35" s="59" t="e"/>
+      <c r="AG35" s="59" t="e"/>
+      <c r="AH35" s="59" t="e"/>
+      <c r="AI35" s="59" t="e"/>
+      <c r="AJ35" s="59" t="e"/>
+      <c r="AK35" s="60" t="n">
+        <v>22450</v>
+      </c>
+      <c r="AL35" s="60" t="e"/>
+      <c r="AM35" s="60" t="e"/>
+      <c r="AN35" s="60" t="e"/>
+      <c r="AO35" s="60" t="e"/>
+      <c r="AP35" s="60" t="e"/>
+      <c r="AQ35" s="60" t="e"/>
+    </row>
+    <row r="36" ht="13" customHeight="true">
+      <c r="B36" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="63" t="e"/>
+      <c r="D36" s="63" t="e"/>
+      <c r="E36" s="63" t="e"/>
+      <c r="F36" s="63" t="e"/>
+      <c r="G36" s="63" t="e"/>
+      <c r="H36" s="63" t="e"/>
+      <c r="I36" s="63" t="e"/>
+      <c r="J36" s="63" t="e"/>
+      <c r="K36" s="63" t="e"/>
+      <c r="L36" s="63" t="e"/>
+      <c r="M36" s="63" t="e"/>
+      <c r="N36" s="63" t="e"/>
+      <c r="O36" s="63" t="e"/>
+      <c r="P36" s="63" t="e"/>
+      <c r="Q36" s="63" t="e"/>
+      <c r="R36" s="63" t="e"/>
+      <c r="S36" s="63" t="e"/>
+      <c r="T36" s="63" t="e"/>
+      <c r="U36" s="63" t="e"/>
+      <c r="V36" s="63" t="e"/>
+      <c r="W36" s="63" t="e"/>
+      <c r="X36" s="63" t="e"/>
+      <c r="Y36" s="63" t="e"/>
+      <c r="Z36" s="63" t="e"/>
+      <c r="AA36" s="63" t="e"/>
+      <c r="AB36" s="63" t="e"/>
+      <c r="AC36" s="63" t="e"/>
+      <c r="AD36" s="63" t="e"/>
+      <c r="AE36" s="63" t="e"/>
+      <c r="AF36" s="63" t="e"/>
+      <c r="AG36" s="63" t="e"/>
+      <c r="AH36" s="63" t="e"/>
+      <c r="AI36" s="63" t="e"/>
+      <c r="AJ36" s="63" t="e"/>
+      <c r="AK36" s="63" t="e"/>
+      <c r="AL36" s="63" t="e"/>
+      <c r="AM36" s="63" t="e"/>
+      <c r="AN36" s="63" t="e"/>
+      <c r="AO36" s="63" t="e"/>
+      <c r="AP36" s="63" t="e"/>
+      <c r="AQ36" s="63" t="e"/>
+    </row>
+    <row r="37" ht="13" customHeight="true">
+      <c r="B37" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="64" t="e"/>
+      <c r="D37" s="64" t="e"/>
+      <c r="E37" s="64" t="e"/>
+      <c r="F37" s="64" t="e"/>
+      <c r="G37" s="64" t="e"/>
+      <c r="H37" s="64" t="e"/>
+      <c r="I37" s="64" t="e"/>
+      <c r="J37" s="64" t="e"/>
+      <c r="K37" s="64" t="e"/>
+      <c r="L37" s="64" t="e"/>
+      <c r="M37" s="64" t="e"/>
+      <c r="N37" s="64" t="e"/>
+      <c r="O37" s="64" t="e"/>
+      <c r="P37" s="64" t="e"/>
+      <c r="Q37" s="64" t="e"/>
+      <c r="R37" s="64" t="e"/>
+      <c r="S37" s="64" t="e"/>
+      <c r="T37" s="64" t="e"/>
+      <c r="U37" s="64" t="e"/>
+      <c r="V37" s="64" t="e"/>
+      <c r="W37" s="64" t="e"/>
+      <c r="X37" s="64" t="e"/>
+      <c r="Y37" s="64" t="e"/>
+      <c r="Z37" s="64" t="e"/>
+      <c r="AA37" s="64" t="e"/>
+      <c r="AB37" s="64" t="e"/>
+      <c r="AC37" s="64" t="e"/>
+      <c r="AD37" s="64" t="e"/>
+      <c r="AE37" s="64" t="e"/>
+      <c r="AF37" s="64" t="e"/>
+      <c r="AG37" s="64" t="e"/>
+      <c r="AH37" s="64" t="e"/>
+      <c r="AI37" s="64" t="e"/>
+      <c r="AJ37" s="64" t="e"/>
+      <c r="AK37" s="64" t="e"/>
+      <c r="AL37" s="64" t="e"/>
+      <c r="AM37" s="64" t="e"/>
+      <c r="AN37" s="64" t="e"/>
+      <c r="AO37" s="64" t="e"/>
+      <c r="AP37" s="64" t="e"/>
+      <c r="AQ37" s="64" t="e"/>
+    </row>
+    <row r="38" ht="7" customHeight="true" s="1" customFormat="true"/>
+    <row r="39" ht="7" customHeight="true" s="1" customFormat="true">
+      <c r="B39" s="58" t="e"/>
+      <c r="C39" s="58" t="e"/>
+      <c r="D39" s="58" t="e"/>
+      <c r="E39" s="58" t="e"/>
+      <c r="F39" s="58" t="e"/>
+      <c r="G39" s="58" t="e"/>
+      <c r="H39" s="58" t="e"/>
+      <c r="I39" s="58" t="e"/>
+      <c r="J39" s="58" t="e"/>
+      <c r="K39" s="58" t="e"/>
+      <c r="L39" s="58" t="e"/>
+      <c r="M39" s="58" t="e"/>
+      <c r="N39" s="58" t="e"/>
+      <c r="O39" s="58" t="e"/>
+      <c r="P39" s="58" t="e"/>
+      <c r="Q39" s="58" t="e"/>
+      <c r="R39" s="58" t="e"/>
+      <c r="S39" s="58" t="e"/>
+      <c r="T39" s="58" t="e"/>
+      <c r="U39" s="58" t="e"/>
+      <c r="V39" s="58" t="e"/>
+      <c r="W39" s="58" t="e"/>
+      <c r="X39" s="58" t="e"/>
+      <c r="Y39" s="58" t="e"/>
+      <c r="Z39" s="58" t="e"/>
+      <c r="AA39" s="58" t="e"/>
+      <c r="AB39" s="58" t="e"/>
+      <c r="AC39" s="58" t="e"/>
+      <c r="AD39" s="58" t="e"/>
+      <c r="AE39" s="58" t="e"/>
+      <c r="AF39" s="58" t="e"/>
+      <c r="AG39" s="58" t="e"/>
+      <c r="AH39" s="58" t="e"/>
+      <c r="AI39" s="58" t="e"/>
+      <c r="AJ39" s="58" t="e"/>
+      <c r="AK39" s="58" t="e"/>
+      <c r="AL39" s="58" t="e"/>
+      <c r="AM39" s="58" t="e"/>
+      <c r="AN39" s="58" t="e"/>
+      <c r="AO39" s="58" t="e"/>
+      <c r="AP39" s="58" t="e"/>
+      <c r="AQ39" s="58" t="e"/>
+    </row>
+    <row r="40" ht="11" customHeight="true"/>
+    <row r="41" ht="13" customHeight="true">
+      <c r="B41" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="65" t="e"/>
+      <c r="D41" s="65" t="e"/>
+      <c r="E41" s="65" t="e"/>
+      <c r="F41" s="65" t="e"/>
+      <c r="G41" s="65" t="e"/>
+      <c r="H41" s="65" t="e"/>
+      <c r="I41" s="65" t="e"/>
+      <c r="J41" s="65" t="e"/>
+      <c r="K41" s="65" t="e"/>
+      <c r="M41" s="66" t="e"/>
+      <c r="N41" s="66" t="e"/>
+      <c r="O41" s="66" t="e"/>
+      <c r="P41" s="66" t="e"/>
+      <c r="Q41" s="66" t="e"/>
+      <c r="R41" s="66" t="e"/>
+      <c r="S41" s="66" t="e"/>
+      <c r="T41" s="66" t="e"/>
+      <c r="U41" s="66" t="e"/>
+      <c r="V41" s="66" t="e"/>
+      <c r="W41" s="66" t="e"/>
+      <c r="X41" s="67" t="e"/>
+      <c r="AA41" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB41" s="68" t="e"/>
+      <c r="AC41" s="68" t="e"/>
+      <c r="AD41" s="68" t="e"/>
+      <c r="AE41" s="68" t="e"/>
+      <c r="AF41" s="68" t="e"/>
+      <c r="AG41" s="68" t="e"/>
+      <c r="AH41" s="68" t="e"/>
+      <c r="AI41" s="68" t="e"/>
+      <c r="AJ41" s="68" t="e"/>
+      <c r="AK41" s="68" t="e"/>
+      <c r="AL41" s="68" t="e"/>
+      <c r="AM41" s="68" t="e"/>
+      <c r="AN41" s="68" t="e"/>
+      <c r="AO41" s="68" t="e"/>
+      <c r="AP41" s="68" t="e"/>
+      <c r="AQ41" s="68" t="e"/>
+    </row>
+    <row r="42" ht="11" customHeight="true">
+      <c r="M42" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" s="69" t="e"/>
+      <c r="O42" s="69" t="e"/>
+      <c r="P42" s="69" t="e"/>
+      <c r="Q42" s="69" t="e"/>
+      <c r="R42" s="69" t="e"/>
+      <c r="S42" s="69" t="e"/>
+      <c r="T42" s="69" t="e"/>
+      <c r="U42" s="69" t="e"/>
+      <c r="V42" s="69" t="e"/>
+      <c r="W42" s="69" t="e"/>
+      <c r="X42" s="69" t="e"/>
+      <c r="AC42" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD42" s="69" t="e"/>
+      <c r="AE42" s="69" t="e"/>
+      <c r="AF42" s="69" t="e"/>
+      <c r="AG42" s="69" t="e"/>
+      <c r="AH42" s="69" t="e"/>
+      <c r="AI42" s="69" t="e"/>
+      <c r="AJ42" s="69" t="e"/>
+      <c r="AK42" s="69" t="e"/>
+      <c r="AL42" s="69" t="e"/>
+      <c r="AM42" s="69" t="e"/>
+      <c r="AN42" s="69" t="e"/>
+      <c r="AO42" s="69" t="e"/>
+      <c r="AP42" s="69" t="e"/>
+      <c r="AQ42" s="69" t="e"/>
+    </row>
+    <row r="43" ht="13" customHeight="true"/>
+    <row r="44" ht="13" customHeight="true">
+      <c r="B44" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="U33" s="52" t="e"/>
-      <c r="V33" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W33" s="53" t="e"/>
-      <c r="X33" s="53" t="e"/>
-      <c r="Y33" s="54" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z33" s="54" t="e"/>
-      <c r="AA33" s="54" t="e"/>
-      <c r="AB33" s="54" t="e"/>
-      <c r="AC33" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD33" s="55" t="e"/>
-      <c r="AE33" s="55" t="e"/>
-      <c r="AF33" s="55" t="e"/>
-      <c r="AG33" s="56" t="n">
-        <v>1150</v>
-      </c>
-      <c r="AH33" s="56" t="e"/>
-      <c r="AI33" s="56" t="e"/>
-      <c r="AJ33" s="56" t="e"/>
-      <c r="AK33" s="57" t="n">
-        <v>12650</v>
-      </c>
-      <c r="AL33" s="57" t="e"/>
-      <c r="AM33" s="57" t="e"/>
-      <c r="AN33" s="57" t="e"/>
-      <c r="AO33" s="57" t="e"/>
-      <c r="AP33" s="57" t="e"/>
-      <c r="AQ33" s="57" t="e"/>
-      <c r="AR33" s="57" t="e"/>
-    </row>
-    <row r="34" ht="11" customHeight="true">
-      <c r="B34" s="50" t="n">
-        <v>10</v>
-      </c>
-      <c r="C34" s="50" t="e"/>
-      <c r="D34" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="51" t="e"/>
-      <c r="F34" s="51" t="e"/>
-      <c r="G34" s="51" t="e"/>
-      <c r="H34" s="51" t="e"/>
-      <c r="I34" s="51" t="e"/>
-      <c r="J34" s="51" t="e"/>
-      <c r="K34" s="51" t="e"/>
-      <c r="L34" s="51" t="e"/>
-      <c r="M34" s="51" t="e"/>
-      <c r="N34" s="51" t="e"/>
-      <c r="O34" s="51" t="e"/>
-      <c r="P34" s="51" t="e"/>
-      <c r="Q34" s="51" t="e"/>
-      <c r="R34" s="51" t="e"/>
-      <c r="S34" s="51" t="e"/>
-      <c r="T34" s="52" t="n">
-        <v>30</v>
-      </c>
-      <c r="U34" s="52" t="e"/>
-      <c r="V34" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W34" s="53" t="e"/>
-      <c r="X34" s="53" t="e"/>
-      <c r="Y34" s="54" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z34" s="54" t="e"/>
-      <c r="AA34" s="54" t="e"/>
-      <c r="AB34" s="54" t="e"/>
-      <c r="AC34" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD34" s="55" t="e"/>
-      <c r="AE34" s="55" t="e"/>
-      <c r="AF34" s="55" t="e"/>
-      <c r="AG34" s="54" t="n">
-        <v>381.82</v>
-      </c>
-      <c r="AH34" s="54" t="e"/>
-      <c r="AI34" s="54" t="e"/>
-      <c r="AJ34" s="54" t="e"/>
-      <c r="AK34" s="57" t="n">
-        <v>4200</v>
-      </c>
-      <c r="AL34" s="57" t="e"/>
-      <c r="AM34" s="57" t="e"/>
-      <c r="AN34" s="57" t="e"/>
-      <c r="AO34" s="57" t="e"/>
-      <c r="AP34" s="57" t="e"/>
-      <c r="AQ34" s="57" t="e"/>
-      <c r="AR34" s="57" t="e"/>
-    </row>
-    <row r="35" ht="11" customHeight="true">
-      <c r="B35" s="50" t="n">
-        <v>11</v>
-      </c>
-      <c r="C35" s="50" t="e"/>
-      <c r="D35" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="51" t="e"/>
-      <c r="F35" s="51" t="e"/>
-      <c r="G35" s="51" t="e"/>
-      <c r="H35" s="51" t="e"/>
-      <c r="I35" s="51" t="e"/>
-      <c r="J35" s="51" t="e"/>
-      <c r="K35" s="51" t="e"/>
-      <c r="L35" s="51" t="e"/>
-      <c r="M35" s="51" t="e"/>
-      <c r="N35" s="51" t="e"/>
-      <c r="O35" s="51" t="e"/>
-      <c r="P35" s="51" t="e"/>
-      <c r="Q35" s="51" t="e"/>
-      <c r="R35" s="51" t="e"/>
-      <c r="S35" s="51" t="e"/>
-      <c r="T35" s="52" t="n">
-        <v>24</v>
-      </c>
-      <c r="U35" s="52" t="e"/>
-      <c r="V35" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="53" t="e"/>
-      <c r="X35" s="53" t="e"/>
-      <c r="Y35" s="54" t="n">
-        <v>920</v>
-      </c>
-      <c r="Z35" s="54" t="e"/>
-      <c r="AA35" s="54" t="e"/>
-      <c r="AB35" s="54" t="e"/>
-      <c r="AC35" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD35" s="55" t="e"/>
-      <c r="AE35" s="55" t="e"/>
-      <c r="AF35" s="55" t="e"/>
-      <c r="AG35" s="56" t="n">
-        <v>2007.27</v>
-      </c>
-      <c r="AH35" s="56" t="e"/>
-      <c r="AI35" s="56" t="e"/>
-      <c r="AJ35" s="56" t="e"/>
-      <c r="AK35" s="57" t="n">
-        <v>22080</v>
-      </c>
-      <c r="AL35" s="57" t="e"/>
-      <c r="AM35" s="57" t="e"/>
-      <c r="AN35" s="57" t="e"/>
-      <c r="AO35" s="57" t="e"/>
-      <c r="AP35" s="57" t="e"/>
-      <c r="AQ35" s="57" t="e"/>
-      <c r="AR35" s="57" t="e"/>
-    </row>
-    <row r="36" ht="11" customHeight="true">
-      <c r="B36" s="50" t="n">
-        <v>12</v>
-      </c>
-      <c r="C36" s="50" t="e"/>
-      <c r="D36" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="51" t="e"/>
-      <c r="F36" s="51" t="e"/>
-      <c r="G36" s="51" t="e"/>
-      <c r="H36" s="51" t="e"/>
-      <c r="I36" s="51" t="e"/>
-      <c r="J36" s="51" t="e"/>
-      <c r="K36" s="51" t="e"/>
-      <c r="L36" s="51" t="e"/>
-      <c r="M36" s="51" t="e"/>
-      <c r="N36" s="51" t="e"/>
-      <c r="O36" s="51" t="e"/>
-      <c r="P36" s="51" t="e"/>
-      <c r="Q36" s="51" t="e"/>
-      <c r="R36" s="51" t="e"/>
-      <c r="S36" s="51" t="e"/>
-      <c r="T36" s="52" t="n">
-        <v>60</v>
-      </c>
-      <c r="U36" s="52" t="e"/>
-      <c r="V36" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W36" s="53" t="e"/>
-      <c r="X36" s="53" t="e"/>
-      <c r="Y36" s="54" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z36" s="54" t="e"/>
-      <c r="AA36" s="54" t="e"/>
-      <c r="AB36" s="54" t="e"/>
-      <c r="AC36" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD36" s="55" t="e"/>
-      <c r="AE36" s="55" t="e"/>
-      <c r="AF36" s="55" t="e"/>
-      <c r="AG36" s="56" t="n">
-        <v>1254.55</v>
-      </c>
-      <c r="AH36" s="56" t="e"/>
-      <c r="AI36" s="56" t="e"/>
-      <c r="AJ36" s="56" t="e"/>
-      <c r="AK36" s="57" t="n">
-        <v>13800</v>
-      </c>
-      <c r="AL36" s="57" t="e"/>
-      <c r="AM36" s="57" t="e"/>
-      <c r="AN36" s="57" t="e"/>
-      <c r="AO36" s="57" t="e"/>
-      <c r="AP36" s="57" t="e"/>
-      <c r="AQ36" s="57" t="e"/>
-      <c r="AR36" s="57" t="e"/>
-    </row>
-    <row r="37" ht="11" customHeight="true">
-      <c r="B37" s="50" t="n">
-        <v>13</v>
-      </c>
-      <c r="C37" s="50" t="e"/>
-      <c r="D37" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E37" s="51" t="e"/>
-      <c r="F37" s="51" t="e"/>
-      <c r="G37" s="51" t="e"/>
-      <c r="H37" s="51" t="e"/>
-      <c r="I37" s="51" t="e"/>
-      <c r="J37" s="51" t="e"/>
-      <c r="K37" s="51" t="e"/>
-      <c r="L37" s="51" t="e"/>
-      <c r="M37" s="51" t="e"/>
-      <c r="N37" s="51" t="e"/>
-      <c r="O37" s="51" t="e"/>
-      <c r="P37" s="51" t="e"/>
-      <c r="Q37" s="51" t="e"/>
-      <c r="R37" s="51" t="e"/>
-      <c r="S37" s="51" t="e"/>
-      <c r="T37" s="52" t="n">
-        <v>30</v>
-      </c>
-      <c r="U37" s="52" t="e"/>
-      <c r="V37" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W37" s="53" t="e"/>
-      <c r="X37" s="53" t="e"/>
-      <c r="Y37" s="54" t="n">
-        <v>520</v>
-      </c>
-      <c r="Z37" s="54" t="e"/>
-      <c r="AA37" s="54" t="e"/>
-      <c r="AB37" s="54" t="e"/>
-      <c r="AC37" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD37" s="55" t="e"/>
-      <c r="AE37" s="55" t="e"/>
-      <c r="AF37" s="55" t="e"/>
-      <c r="AG37" s="56" t="n">
-        <v>1418.18</v>
-      </c>
-      <c r="AH37" s="56" t="e"/>
-      <c r="AI37" s="56" t="e"/>
-      <c r="AJ37" s="56" t="e"/>
-      <c r="AK37" s="57" t="n">
-        <v>15600</v>
-      </c>
-      <c r="AL37" s="57" t="e"/>
-      <c r="AM37" s="57" t="e"/>
-      <c r="AN37" s="57" t="e"/>
-      <c r="AO37" s="57" t="e"/>
-      <c r="AP37" s="57" t="e"/>
-      <c r="AQ37" s="57" t="e"/>
-      <c r="AR37" s="57" t="e"/>
-    </row>
-    <row r="38" ht="22" customHeight="true">
-      <c r="B38" s="50" t="n">
-        <v>14</v>
-      </c>
-      <c r="C38" s="50" t="e"/>
-      <c r="D38" s="51" t="s">
+      <c r="M44" s="66" t="e"/>
+      <c r="N44" s="66" t="e"/>
+      <c r="O44" s="66" t="e"/>
+      <c r="P44" s="66" t="e"/>
+      <c r="Q44" s="66" t="e"/>
+      <c r="R44" s="66" t="e"/>
+      <c r="S44" s="66" t="e"/>
+      <c r="T44" s="66" t="e"/>
+      <c r="U44" s="66" t="e"/>
+      <c r="V44" s="66" t="e"/>
+      <c r="W44" s="66" t="e"/>
+      <c r="X44" s="67" t="e"/>
+      <c r="AA44" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="51" t="e"/>
-      <c r="F38" s="51" t="e"/>
-      <c r="G38" s="51" t="e"/>
-      <c r="H38" s="51" t="e"/>
-      <c r="I38" s="51" t="e"/>
-      <c r="J38" s="51" t="e"/>
-      <c r="K38" s="51" t="e"/>
-      <c r="L38" s="51" t="e"/>
-      <c r="M38" s="51" t="e"/>
-      <c r="N38" s="51" t="e"/>
-      <c r="O38" s="51" t="e"/>
-      <c r="P38" s="51" t="e"/>
-      <c r="Q38" s="51" t="e"/>
-      <c r="R38" s="51" t="e"/>
-      <c r="S38" s="51" t="e"/>
-      <c r="T38" s="52" t="n">
-        <v>30</v>
-      </c>
-      <c r="U38" s="52" t="e"/>
-      <c r="V38" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W38" s="53" t="e"/>
-      <c r="X38" s="53" t="e"/>
-      <c r="Y38" s="54" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z38" s="54" t="e"/>
-      <c r="AA38" s="54" t="e"/>
-      <c r="AB38" s="54" t="e"/>
-      <c r="AC38" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD38" s="55" t="e"/>
-      <c r="AE38" s="55" t="e"/>
-      <c r="AF38" s="55" t="e"/>
-      <c r="AG38" s="54" t="n">
-        <v>381.82</v>
-      </c>
-      <c r="AH38" s="54" t="e"/>
-      <c r="AI38" s="54" t="e"/>
-      <c r="AJ38" s="54" t="e"/>
-      <c r="AK38" s="57" t="n">
-        <v>4200</v>
-      </c>
-      <c r="AL38" s="57" t="e"/>
-      <c r="AM38" s="57" t="e"/>
-      <c r="AN38" s="57" t="e"/>
-      <c r="AO38" s="57" t="e"/>
-      <c r="AP38" s="57" t="e"/>
-      <c r="AQ38" s="57" t="e"/>
-      <c r="AR38" s="57" t="e"/>
-    </row>
-    <row r="39" ht="11" customHeight="true">
-      <c r="B39" s="50" t="n">
-        <v>15</v>
-      </c>
-      <c r="C39" s="50" t="e"/>
-      <c r="D39" s="51" t="s">
+      <c r="AB44" s="68" t="e"/>
+      <c r="AC44" s="68" t="e"/>
+      <c r="AD44" s="68" t="e"/>
+      <c r="AE44" s="68" t="e"/>
+      <c r="AF44" s="68" t="e"/>
+      <c r="AG44" s="68" t="e"/>
+      <c r="AH44" s="68" t="e"/>
+      <c r="AI44" s="68" t="e"/>
+      <c r="AJ44" s="68" t="e"/>
+      <c r="AK44" s="68" t="e"/>
+      <c r="AL44" s="68" t="e"/>
+      <c r="AM44" s="68" t="e"/>
+      <c r="AN44" s="68" t="e"/>
+      <c r="AO44" s="68" t="e"/>
+      <c r="AP44" s="68" t="e"/>
+      <c r="AQ44" s="68" t="e"/>
+    </row>
+    <row r="45" ht="11" customHeight="true">
+      <c r="M45" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="51" t="e"/>
-      <c r="F39" s="51" t="e"/>
-      <c r="G39" s="51" t="e"/>
-      <c r="H39" s="51" t="e"/>
-      <c r="I39" s="51" t="e"/>
-      <c r="J39" s="51" t="e"/>
-      <c r="K39" s="51" t="e"/>
-      <c r="L39" s="51" t="e"/>
-      <c r="M39" s="51" t="e"/>
-      <c r="N39" s="51" t="e"/>
-      <c r="O39" s="51" t="e"/>
-      <c r="P39" s="51" t="e"/>
-      <c r="Q39" s="51" t="e"/>
-      <c r="R39" s="51" t="e"/>
-      <c r="S39" s="51" t="e"/>
-      <c r="T39" s="52" t="n">
-        <v>40</v>
-      </c>
-      <c r="U39" s="52" t="e"/>
-      <c r="V39" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W39" s="53" t="e"/>
-      <c r="X39" s="53" t="e"/>
-      <c r="Y39" s="54" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z39" s="54" t="e"/>
-      <c r="AA39" s="54" t="e"/>
-      <c r="AB39" s="54" t="e"/>
-      <c r="AC39" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD39" s="55" t="e"/>
-      <c r="AE39" s="55" t="e"/>
-      <c r="AF39" s="55" t="e"/>
-      <c r="AG39" s="54" t="n">
-        <v>836.36</v>
-      </c>
-      <c r="AH39" s="54" t="e"/>
-      <c r="AI39" s="54" t="e"/>
-      <c r="AJ39" s="54" t="e"/>
-      <c r="AK39" s="57" t="n">
-        <v>9200</v>
-      </c>
-      <c r="AL39" s="57" t="e"/>
-      <c r="AM39" s="57" t="e"/>
-      <c r="AN39" s="57" t="e"/>
-      <c r="AO39" s="57" t="e"/>
-      <c r="AP39" s="57" t="e"/>
-      <c r="AQ39" s="57" t="e"/>
-      <c r="AR39" s="57" t="e"/>
-    </row>
-    <row r="40" ht="11" customHeight="true">
-      <c r="B40" s="50" t="n">
-        <v>16</v>
-      </c>
-      <c r="C40" s="50" t="e"/>
-      <c r="D40" s="51" t="s">
+      <c r="N45" s="69" t="e"/>
+      <c r="O45" s="69" t="e"/>
+      <c r="P45" s="69" t="e"/>
+      <c r="Q45" s="69" t="e"/>
+      <c r="R45" s="69" t="e"/>
+      <c r="S45" s="69" t="e"/>
+      <c r="T45" s="69" t="e"/>
+      <c r="U45" s="69" t="e"/>
+      <c r="V45" s="69" t="e"/>
+      <c r="W45" s="69" t="e"/>
+      <c r="X45" s="69" t="e"/>
+      <c r="AC45" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="51" t="e"/>
-      <c r="F40" s="51" t="e"/>
-      <c r="G40" s="51" t="e"/>
-      <c r="H40" s="51" t="e"/>
-      <c r="I40" s="51" t="e"/>
-      <c r="J40" s="51" t="e"/>
-      <c r="K40" s="51" t="e"/>
-      <c r="L40" s="51" t="e"/>
-      <c r="M40" s="51" t="e"/>
-      <c r="N40" s="51" t="e"/>
-      <c r="O40" s="51" t="e"/>
-      <c r="P40" s="51" t="e"/>
-      <c r="Q40" s="51" t="e"/>
-      <c r="R40" s="51" t="e"/>
-      <c r="S40" s="51" t="e"/>
-      <c r="T40" s="52" t="n">
-        <v>50</v>
-      </c>
-      <c r="U40" s="52" t="e"/>
-      <c r="V40" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W40" s="53" t="e"/>
-      <c r="X40" s="53" t="e"/>
-      <c r="Y40" s="54" t="n">
-        <v>230</v>
-      </c>
-      <c r="Z40" s="54" t="e"/>
-      <c r="AA40" s="54" t="e"/>
-      <c r="AB40" s="54" t="e"/>
-      <c r="AC40" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD40" s="55" t="e"/>
-      <c r="AE40" s="55" t="e"/>
-      <c r="AF40" s="55" t="e"/>
-      <c r="AG40" s="56" t="n">
-        <v>1045.45</v>
-      </c>
-      <c r="AH40" s="56" t="e"/>
-      <c r="AI40" s="56" t="e"/>
-      <c r="AJ40" s="56" t="e"/>
-      <c r="AK40" s="57" t="n">
-        <v>11500</v>
-      </c>
-      <c r="AL40" s="57" t="e"/>
-      <c r="AM40" s="57" t="e"/>
-      <c r="AN40" s="57" t="e"/>
-      <c r="AO40" s="57" t="e"/>
-      <c r="AP40" s="57" t="e"/>
-      <c r="AQ40" s="57" t="e"/>
-      <c r="AR40" s="57" t="e"/>
-    </row>
-    <row r="41" ht="11" customHeight="true">
-      <c r="B41" s="50" t="n">
-        <v>17</v>
-      </c>
-      <c r="C41" s="50" t="e"/>
-      <c r="D41" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="51" t="e"/>
-      <c r="F41" s="51" t="e"/>
-      <c r="G41" s="51" t="e"/>
-      <c r="H41" s="51" t="e"/>
-      <c r="I41" s="51" t="e"/>
-      <c r="J41" s="51" t="e"/>
-      <c r="K41" s="51" t="e"/>
-      <c r="L41" s="51" t="e"/>
-      <c r="M41" s="51" t="e"/>
-      <c r="N41" s="51" t="e"/>
-      <c r="O41" s="51" t="e"/>
-      <c r="P41" s="51" t="e"/>
-      <c r="Q41" s="51" t="e"/>
-      <c r="R41" s="51" t="e"/>
-      <c r="S41" s="51" t="e"/>
-      <c r="T41" s="52" t="n">
-        <v>36</v>
-      </c>
-      <c r="U41" s="52" t="e"/>
-      <c r="V41" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W41" s="53" t="e"/>
-      <c r="X41" s="53" t="e"/>
-      <c r="Y41" s="54" t="n">
-        <v>790</v>
-      </c>
-      <c r="Z41" s="54" t="e"/>
-      <c r="AA41" s="54" t="e"/>
-      <c r="AB41" s="54" t="e"/>
-      <c r="AC41" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD41" s="55" t="e"/>
-      <c r="AE41" s="55" t="e"/>
-      <c r="AF41" s="55" t="e"/>
-      <c r="AG41" s="56" t="n">
-        <v>2585.45</v>
-      </c>
-      <c r="AH41" s="56" t="e"/>
-      <c r="AI41" s="56" t="e"/>
-      <c r="AJ41" s="56" t="e"/>
-      <c r="AK41" s="57" t="n">
-        <v>28440</v>
-      </c>
-      <c r="AL41" s="57" t="e"/>
-      <c r="AM41" s="57" t="e"/>
-      <c r="AN41" s="57" t="e"/>
-      <c r="AO41" s="57" t="e"/>
-      <c r="AP41" s="57" t="e"/>
-      <c r="AQ41" s="57" t="e"/>
-      <c r="AR41" s="57" t="e"/>
-    </row>
-    <row r="42" ht="11" customHeight="true">
-      <c r="B42" s="50" t="n">
-        <v>18</v>
-      </c>
-      <c r="C42" s="50" t="e"/>
-      <c r="D42" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="51" t="e"/>
-      <c r="F42" s="51" t="e"/>
-      <c r="G42" s="51" t="e"/>
-      <c r="H42" s="51" t="e"/>
-      <c r="I42" s="51" t="e"/>
-      <c r="J42" s="51" t="e"/>
-      <c r="K42" s="51" t="e"/>
-      <c r="L42" s="51" t="e"/>
-      <c r="M42" s="51" t="e"/>
-      <c r="N42" s="51" t="e"/>
-      <c r="O42" s="51" t="e"/>
-      <c r="P42" s="51" t="e"/>
-      <c r="Q42" s="51" t="e"/>
-      <c r="R42" s="51" t="e"/>
-      <c r="S42" s="51" t="e"/>
-      <c r="T42" s="52" t="n">
-        <v>20</v>
-      </c>
-      <c r="U42" s="52" t="e"/>
-      <c r="V42" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W42" s="53" t="e"/>
-      <c r="X42" s="53" t="e"/>
-      <c r="Y42" s="54" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z42" s="54" t="e"/>
-      <c r="AA42" s="54" t="e"/>
-      <c r="AB42" s="54" t="e"/>
-      <c r="AC42" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD42" s="55" t="e"/>
-      <c r="AE42" s="55" t="e"/>
-      <c r="AF42" s="55" t="e"/>
-      <c r="AG42" s="54" t="n">
-        <v>254.55</v>
-      </c>
-      <c r="AH42" s="54" t="e"/>
-      <c r="AI42" s="54" t="e"/>
-      <c r="AJ42" s="54" t="e"/>
-      <c r="AK42" s="57" t="n">
-        <v>2800</v>
-      </c>
-      <c r="AL42" s="57" t="e"/>
-      <c r="AM42" s="57" t="e"/>
-      <c r="AN42" s="57" t="e"/>
-      <c r="AO42" s="57" t="e"/>
-      <c r="AP42" s="57" t="e"/>
-      <c r="AQ42" s="57" t="e"/>
-      <c r="AR42" s="57" t="e"/>
-    </row>
-    <row r="43" ht="11" customHeight="true">
-      <c r="B43" s="50" t="n">
-        <v>19</v>
-      </c>
-      <c r="C43" s="50" t="e"/>
-      <c r="D43" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E43" s="51" t="e"/>
-      <c r="F43" s="51" t="e"/>
-      <c r="G43" s="51" t="e"/>
-      <c r="H43" s="51" t="e"/>
-      <c r="I43" s="51" t="e"/>
-      <c r="J43" s="51" t="e"/>
-      <c r="K43" s="51" t="e"/>
-      <c r="L43" s="51" t="e"/>
-      <c r="M43" s="51" t="e"/>
-      <c r="N43" s="51" t="e"/>
-      <c r="O43" s="51" t="e"/>
-      <c r="P43" s="51" t="e"/>
-      <c r="Q43" s="51" t="e"/>
-      <c r="R43" s="51" t="e"/>
-      <c r="S43" s="51" t="e"/>
-      <c r="T43" s="52" t="n">
-        <v>30</v>
-      </c>
-      <c r="U43" s="52" t="e"/>
-      <c r="V43" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W43" s="53" t="e"/>
-      <c r="X43" s="53" t="e"/>
-      <c r="Y43" s="54" t="n">
-        <v>380</v>
-      </c>
-      <c r="Z43" s="54" t="e"/>
-      <c r="AA43" s="54" t="e"/>
-      <c r="AB43" s="54" t="e"/>
-      <c r="AC43" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD43" s="55" t="e"/>
-      <c r="AE43" s="55" t="e"/>
-      <c r="AF43" s="55" t="e"/>
-      <c r="AG43" s="56" t="n">
-        <v>1036.36</v>
-      </c>
-      <c r="AH43" s="56" t="e"/>
-      <c r="AI43" s="56" t="e"/>
-      <c r="AJ43" s="56" t="e"/>
-      <c r="AK43" s="57" t="n">
-        <v>11400</v>
-      </c>
-      <c r="AL43" s="57" t="e"/>
-      <c r="AM43" s="57" t="e"/>
-      <c r="AN43" s="57" t="e"/>
-      <c r="AO43" s="57" t="e"/>
-      <c r="AP43" s="57" t="e"/>
-      <c r="AQ43" s="57" t="e"/>
-      <c r="AR43" s="57" t="e"/>
-    </row>
-    <row r="44" ht="11" customHeight="true">
-      <c r="B44" s="50" t="n">
-        <v>20</v>
-      </c>
-      <c r="C44" s="50" t="e"/>
-      <c r="D44" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="51" t="e"/>
-      <c r="F44" s="51" t="e"/>
-      <c r="G44" s="51" t="e"/>
-      <c r="H44" s="51" t="e"/>
-      <c r="I44" s="51" t="e"/>
-      <c r="J44" s="51" t="e"/>
-      <c r="K44" s="51" t="e"/>
-      <c r="L44" s="51" t="e"/>
-      <c r="M44" s="51" t="e"/>
-      <c r="N44" s="51" t="e"/>
-      <c r="O44" s="51" t="e"/>
-      <c r="P44" s="51" t="e"/>
-      <c r="Q44" s="51" t="e"/>
-      <c r="R44" s="51" t="e"/>
-      <c r="S44" s="51" t="e"/>
-      <c r="T44" s="52" t="n">
-        <v>24</v>
-      </c>
-      <c r="U44" s="52" t="e"/>
-      <c r="V44" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W44" s="53" t="e"/>
-      <c r="X44" s="53" t="e"/>
-      <c r="Y44" s="54" t="n">
-        <v>620</v>
-      </c>
-      <c r="Z44" s="54" t="e"/>
-      <c r="AA44" s="54" t="e"/>
-      <c r="AB44" s="54" t="e"/>
-      <c r="AC44" s="55" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD44" s="55" t="e"/>
-      <c r="AE44" s="55" t="e"/>
-      <c r="AF44" s="55" t="e"/>
-      <c r="AG44" s="56" t="n">
-        <v>2480</v>
-      </c>
-      <c r="AH44" s="56" t="e"/>
-      <c r="AI44" s="56" t="e"/>
-      <c r="AJ44" s="56" t="e"/>
-      <c r="AK44" s="57" t="n">
-        <v>14880</v>
-      </c>
-      <c r="AL44" s="57" t="e"/>
-      <c r="AM44" s="57" t="e"/>
-      <c r="AN44" s="57" t="e"/>
-      <c r="AO44" s="57" t="e"/>
-      <c r="AP44" s="57" t="e"/>
-      <c r="AQ44" s="57" t="e"/>
-      <c r="AR44" s="57" t="e"/>
-    </row>
-    <row r="45" ht="11" customHeight="true">
-      <c r="B45" s="50" t="n">
-        <v>21</v>
-      </c>
-      <c r="C45" s="50" t="e"/>
-      <c r="D45" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="51" t="e"/>
-      <c r="F45" s="51" t="e"/>
-      <c r="G45" s="51" t="e"/>
-      <c r="H45" s="51" t="e"/>
-      <c r="I45" s="51" t="e"/>
-      <c r="J45" s="51" t="e"/>
-      <c r="K45" s="51" t="e"/>
-      <c r="L45" s="51" t="e"/>
-      <c r="M45" s="51" t="e"/>
-      <c r="N45" s="51" t="e"/>
-      <c r="O45" s="51" t="e"/>
-      <c r="P45" s="51" t="e"/>
-      <c r="Q45" s="51" t="e"/>
-      <c r="R45" s="51" t="e"/>
-      <c r="S45" s="51" t="e"/>
-      <c r="T45" s="52" t="n">
-        <v>24</v>
-      </c>
-      <c r="U45" s="52" t="e"/>
-      <c r="V45" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W45" s="53" t="e"/>
-      <c r="X45" s="53" t="e"/>
-      <c r="Y45" s="56" t="n">
-        <v>1650</v>
-      </c>
-      <c r="Z45" s="56" t="e"/>
-      <c r="AA45" s="56" t="e"/>
-      <c r="AB45" s="56" t="e"/>
-      <c r="AC45" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD45" s="55" t="e"/>
-      <c r="AE45" s="55" t="e"/>
-      <c r="AF45" s="55" t="e"/>
-      <c r="AG45" s="56" t="n">
-        <v>3600</v>
-      </c>
-      <c r="AH45" s="56" t="e"/>
-      <c r="AI45" s="56" t="e"/>
-      <c r="AJ45" s="56" t="e"/>
-      <c r="AK45" s="57" t="n">
-        <v>39600</v>
-      </c>
-      <c r="AL45" s="57" t="e"/>
-      <c r="AM45" s="57" t="e"/>
-      <c r="AN45" s="57" t="e"/>
-      <c r="AO45" s="57" t="e"/>
-      <c r="AP45" s="57" t="e"/>
-      <c r="AQ45" s="57" t="e"/>
-      <c r="AR45" s="57" t="e"/>
-    </row>
-    <row r="46" ht="22" customHeight="true">
-      <c r="B46" s="50" t="n">
-        <v>22</v>
-      </c>
-      <c r="C46" s="50" t="e"/>
-      <c r="D46" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="51" t="e"/>
-      <c r="F46" s="51" t="e"/>
-      <c r="G46" s="51" t="e"/>
-      <c r="H46" s="51" t="e"/>
-      <c r="I46" s="51" t="e"/>
-      <c r="J46" s="51" t="e"/>
-      <c r="K46" s="51" t="e"/>
-      <c r="L46" s="51" t="e"/>
-      <c r="M46" s="51" t="e"/>
-      <c r="N46" s="51" t="e"/>
-      <c r="O46" s="51" t="e"/>
-      <c r="P46" s="51" t="e"/>
-      <c r="Q46" s="51" t="e"/>
-      <c r="R46" s="51" t="e"/>
-      <c r="S46" s="51" t="e"/>
-      <c r="T46" s="52" t="n">
-        <v>24</v>
-      </c>
-      <c r="U46" s="52" t="e"/>
-      <c r="V46" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W46" s="53" t="e"/>
-      <c r="X46" s="53" t="e"/>
-      <c r="Y46" s="54" t="n">
-        <v>620</v>
-      </c>
-      <c r="Z46" s="54" t="e"/>
-      <c r="AA46" s="54" t="e"/>
-      <c r="AB46" s="54" t="e"/>
-      <c r="AC46" s="55" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD46" s="55" t="e"/>
-      <c r="AE46" s="55" t="e"/>
-      <c r="AF46" s="55" t="e"/>
-      <c r="AG46" s="56" t="n">
-        <v>2480</v>
-      </c>
-      <c r="AH46" s="56" t="e"/>
-      <c r="AI46" s="56" t="e"/>
-      <c r="AJ46" s="56" t="e"/>
-      <c r="AK46" s="57" t="n">
-        <v>14880</v>
-      </c>
-      <c r="AL46" s="57" t="e"/>
-      <c r="AM46" s="57" t="e"/>
-      <c r="AN46" s="57" t="e"/>
-      <c r="AO46" s="57" t="e"/>
-      <c r="AP46" s="57" t="e"/>
-      <c r="AQ46" s="57" t="e"/>
-      <c r="AR46" s="57" t="e"/>
-    </row>
-    <row r="47" ht="11" customHeight="true">
-      <c r="B47" s="50" t="n">
-        <v>23</v>
-      </c>
-      <c r="C47" s="50" t="e"/>
-      <c r="D47" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="51" t="e"/>
-      <c r="F47" s="51" t="e"/>
-      <c r="G47" s="51" t="e"/>
-      <c r="H47" s="51" t="e"/>
-      <c r="I47" s="51" t="e"/>
-      <c r="J47" s="51" t="e"/>
-      <c r="K47" s="51" t="e"/>
-      <c r="L47" s="51" t="e"/>
-      <c r="M47" s="51" t="e"/>
-      <c r="N47" s="51" t="e"/>
-      <c r="O47" s="51" t="e"/>
-      <c r="P47" s="51" t="e"/>
-      <c r="Q47" s="51" t="e"/>
-      <c r="R47" s="51" t="e"/>
-      <c r="S47" s="51" t="e"/>
-      <c r="T47" s="52" t="n">
-        <v>14</v>
-      </c>
-      <c r="U47" s="52" t="e"/>
-      <c r="V47" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W47" s="53" t="e"/>
-      <c r="X47" s="53" t="e"/>
-      <c r="Y47" s="54" t="n">
-        <v>590</v>
-      </c>
-      <c r="Z47" s="54" t="e"/>
-      <c r="AA47" s="54" t="e"/>
-      <c r="AB47" s="54" t="e"/>
-      <c r="AC47" s="55" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD47" s="55" t="e"/>
-      <c r="AE47" s="55" t="e"/>
-      <c r="AF47" s="55" t="e"/>
-      <c r="AG47" s="56" t="n">
-        <v>1376.67</v>
-      </c>
-      <c r="AH47" s="56" t="e"/>
-      <c r="AI47" s="56" t="e"/>
-      <c r="AJ47" s="56" t="e"/>
-      <c r="AK47" s="57" t="n">
-        <v>8260</v>
-      </c>
-      <c r="AL47" s="57" t="e"/>
-      <c r="AM47" s="57" t="e"/>
-      <c r="AN47" s="57" t="e"/>
-      <c r="AO47" s="57" t="e"/>
-      <c r="AP47" s="57" t="e"/>
-      <c r="AQ47" s="57" t="e"/>
-      <c r="AR47" s="57" t="e"/>
-    </row>
-    <row r="48" ht="22" customHeight="true">
-      <c r="B48" s="50" t="n">
-        <v>24</v>
-      </c>
-      <c r="C48" s="50" t="e"/>
-      <c r="D48" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="51" t="e"/>
-      <c r="F48" s="51" t="e"/>
-      <c r="G48" s="51" t="e"/>
-      <c r="H48" s="51" t="e"/>
-      <c r="I48" s="51" t="e"/>
-      <c r="J48" s="51" t="e"/>
-      <c r="K48" s="51" t="e"/>
-      <c r="L48" s="51" t="e"/>
-      <c r="M48" s="51" t="e"/>
-      <c r="N48" s="51" t="e"/>
-      <c r="O48" s="51" t="e"/>
-      <c r="P48" s="51" t="e"/>
-      <c r="Q48" s="51" t="e"/>
-      <c r="R48" s="51" t="e"/>
-      <c r="S48" s="51" t="e"/>
-      <c r="T48" s="52" t="n">
-        <v>24</v>
-      </c>
-      <c r="U48" s="52" t="e"/>
-      <c r="V48" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W48" s="53" t="e"/>
-      <c r="X48" s="53" t="e"/>
-      <c r="Y48" s="56" t="n">
-        <v>1250</v>
-      </c>
-      <c r="Z48" s="56" t="e"/>
-      <c r="AA48" s="56" t="e"/>
-      <c r="AB48" s="56" t="e"/>
-      <c r="AC48" s="55" t="n">
-        <v>20</v>
-      </c>
-      <c r="AD48" s="55" t="e"/>
-      <c r="AE48" s="55" t="e"/>
-      <c r="AF48" s="55" t="e"/>
-      <c r="AG48" s="56" t="n">
-        <v>5000</v>
-      </c>
-      <c r="AH48" s="56" t="e"/>
-      <c r="AI48" s="56" t="e"/>
-      <c r="AJ48" s="56" t="e"/>
-      <c r="AK48" s="57" t="n">
-        <v>30000</v>
-      </c>
-      <c r="AL48" s="57" t="e"/>
-      <c r="AM48" s="57" t="e"/>
-      <c r="AN48" s="57" t="e"/>
-      <c r="AO48" s="57" t="e"/>
-      <c r="AP48" s="57" t="e"/>
-      <c r="AQ48" s="57" t="e"/>
-      <c r="AR48" s="57" t="e"/>
-    </row>
-    <row r="49" ht="11" customHeight="true">
-      <c r="B49" s="50" t="n">
-        <v>25</v>
-      </c>
-      <c r="C49" s="50" t="e"/>
-      <c r="D49" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E49" s="51" t="e"/>
-      <c r="F49" s="51" t="e"/>
-      <c r="G49" s="51" t="e"/>
-      <c r="H49" s="51" t="e"/>
-      <c r="I49" s="51" t="e"/>
-      <c r="J49" s="51" t="e"/>
-      <c r="K49" s="51" t="e"/>
-      <c r="L49" s="51" t="e"/>
-      <c r="M49" s="51" t="e"/>
-      <c r="N49" s="51" t="e"/>
-      <c r="O49" s="51" t="e"/>
-      <c r="P49" s="51" t="e"/>
-      <c r="Q49" s="51" t="e"/>
-      <c r="R49" s="51" t="e"/>
-      <c r="S49" s="51" t="e"/>
-      <c r="T49" s="52" t="n">
-        <v>12</v>
-      </c>
-      <c r="U49" s="52" t="e"/>
-      <c r="V49" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W49" s="53" t="e"/>
-      <c r="X49" s="53" t="e"/>
-      <c r="Y49" s="54" t="n">
-        <v>420</v>
-      </c>
-      <c r="Z49" s="54" t="e"/>
-      <c r="AA49" s="54" t="e"/>
-      <c r="AB49" s="54" t="e"/>
-      <c r="AC49" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD49" s="55" t="e"/>
-      <c r="AE49" s="55" t="e"/>
-      <c r="AF49" s="55" t="e"/>
-      <c r="AG49" s="54" t="n">
-        <v>458.18</v>
-      </c>
-      <c r="AH49" s="54" t="e"/>
-      <c r="AI49" s="54" t="e"/>
-      <c r="AJ49" s="54" t="e"/>
-      <c r="AK49" s="57" t="n">
-        <v>5040</v>
-      </c>
-      <c r="AL49" s="57" t="e"/>
-      <c r="AM49" s="57" t="e"/>
-      <c r="AN49" s="57" t="e"/>
-      <c r="AO49" s="57" t="e"/>
-      <c r="AP49" s="57" t="e"/>
-      <c r="AQ49" s="57" t="e"/>
-      <c r="AR49" s="57" t="e"/>
-    </row>
-    <row r="50" ht="11" customHeight="true">
-      <c r="B50" s="50" t="n">
-        <v>26</v>
-      </c>
-      <c r="C50" s="50" t="e"/>
-      <c r="D50" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="E50" s="51" t="e"/>
-      <c r="F50" s="51" t="e"/>
-      <c r="G50" s="51" t="e"/>
-      <c r="H50" s="51" t="e"/>
-      <c r="I50" s="51" t="e"/>
-      <c r="J50" s="51" t="e"/>
-      <c r="K50" s="51" t="e"/>
-      <c r="L50" s="51" t="e"/>
-      <c r="M50" s="51" t="e"/>
-      <c r="N50" s="51" t="e"/>
-      <c r="O50" s="51" t="e"/>
-      <c r="P50" s="51" t="e"/>
-      <c r="Q50" s="51" t="e"/>
-      <c r="R50" s="51" t="e"/>
-      <c r="S50" s="51" t="e"/>
-      <c r="T50" s="52" t="n">
-        <v>11</v>
-      </c>
-      <c r="U50" s="52" t="e"/>
-      <c r="V50" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="W50" s="53" t="e"/>
-      <c r="X50" s="53" t="e"/>
-      <c r="Y50" s="54" t="n">
-        <v>460</v>
-      </c>
-      <c r="Z50" s="54" t="e"/>
-      <c r="AA50" s="54" t="e"/>
-      <c r="AB50" s="54" t="e"/>
-      <c r="AC50" s="55" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD50" s="55" t="e"/>
-      <c r="AE50" s="55" t="e"/>
-      <c r="AF50" s="55" t="e"/>
-      <c r="AG50" s="54" t="n">
-        <v>460</v>
-      </c>
-      <c r="AH50" s="54" t="e"/>
-      <c r="AI50" s="54" t="e"/>
-      <c r="AJ50" s="54" t="e"/>
-      <c r="AK50" s="57" t="n">
-        <v>5060</v>
-      </c>
-      <c r="AL50" s="57" t="e"/>
-      <c r="AM50" s="57" t="e"/>
-      <c r="AN50" s="57" t="e"/>
-      <c r="AO50" s="57" t="e"/>
-      <c r="AP50" s="57" t="e"/>
-      <c r="AQ50" s="57" t="e"/>
-      <c r="AR50" s="57" t="e"/>
-    </row>
-    <row r="51" ht="5" customHeight="true" s="1" customFormat="true">
-      <c r="B51" s="58" t="e"/>
-      <c r="C51" s="58" t="e"/>
-      <c r="D51" s="58" t="e"/>
-      <c r="E51" s="58" t="e"/>
-      <c r="F51" s="58" t="e"/>
-      <c r="G51" s="58" t="e"/>
-      <c r="H51" s="58" t="e"/>
-      <c r="I51" s="58" t="e"/>
-      <c r="J51" s="58" t="e"/>
-      <c r="K51" s="58" t="e"/>
-      <c r="L51" s="58" t="e"/>
-      <c r="M51" s="58" t="e"/>
-      <c r="N51" s="58" t="e"/>
-      <c r="O51" s="58" t="e"/>
-      <c r="P51" s="58" t="e"/>
-      <c r="Q51" s="58" t="e"/>
-      <c r="R51" s="58" t="e"/>
-      <c r="S51" s="58" t="e"/>
-      <c r="T51" s="58" t="e"/>
-      <c r="U51" s="58" t="e"/>
-      <c r="V51" s="58" t="e"/>
-      <c r="W51" s="58" t="e"/>
-      <c r="X51" s="58" t="e"/>
-      <c r="Y51" s="58" t="e"/>
-      <c r="Z51" s="58" t="e"/>
-      <c r="AA51" s="58" t="e"/>
-      <c r="AB51" s="58" t="e"/>
-      <c r="AC51" s="58" t="e"/>
-      <c r="AD51" s="58" t="e"/>
-      <c r="AE51" s="58" t="e"/>
-      <c r="AF51" s="58" t="e"/>
-      <c r="AG51" s="58" t="e"/>
-      <c r="AH51" s="58" t="e"/>
-      <c r="AI51" s="58" t="e"/>
-      <c r="AJ51" s="58" t="e"/>
-      <c r="AK51" s="58" t="e"/>
-      <c r="AL51" s="58" t="e"/>
-      <c r="AM51" s="58" t="e"/>
-      <c r="AN51" s="58" t="e"/>
-      <c r="AO51" s="58" t="e"/>
-      <c r="AP51" s="58" t="e"/>
-      <c r="AQ51" s="58" t="e"/>
-      <c r="AR51" s="58" t="e"/>
-    </row>
-    <row r="52" ht="13" customHeight="true">
-      <c r="AG52" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH52" s="59" t="e"/>
-      <c r="AI52" s="59" t="e"/>
-      <c r="AJ52" s="59" t="e"/>
-      <c r="AK52" s="60" t="n">
-        <v>455240</v>
-      </c>
-      <c r="AL52" s="60" t="e"/>
-      <c r="AM52" s="60" t="e"/>
-      <c r="AN52" s="60" t="e"/>
-      <c r="AO52" s="60" t="e"/>
-      <c r="AP52" s="60" t="e"/>
-      <c r="AQ52" s="60" t="e"/>
-      <c r="AR52" s="60" t="e"/>
-    </row>
-    <row r="53" ht="13" customHeight="true">
-      <c r="AJ53" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK53" s="61" t="n">
-        <v>22250</v>
-      </c>
-      <c r="AL53" s="61" t="e"/>
-      <c r="AM53" s="61" t="e"/>
-      <c r="AN53" s="61" t="e"/>
-      <c r="AO53" s="61" t="e"/>
-      <c r="AP53" s="61" t="e"/>
-      <c r="AQ53" s="61" t="e"/>
-    </row>
-    <row r="54" ht="13" customHeight="true">
-      <c r="AJ54" s="59" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK54" s="61" t="n">
-        <v>29249.09</v>
-      </c>
-      <c r="AL54" s="61" t="e"/>
-      <c r="AM54" s="61" t="e"/>
-      <c r="AN54" s="61" t="e"/>
-      <c r="AO54" s="61" t="e"/>
-      <c r="AP54" s="61" t="e"/>
-      <c r="AQ54" s="61" t="e"/>
-    </row>
-    <row r="55" ht="13" customHeight="true">
-      <c r="AE55" s="59" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF55" s="59" t="e"/>
-      <c r="AG55" s="59" t="e"/>
-      <c r="AH55" s="59" t="e"/>
-      <c r="AI55" s="59" t="e"/>
-      <c r="AJ55" s="59" t="e"/>
-      <c r="AK55" s="60" t="n">
-        <v>455240</v>
-      </c>
-      <c r="AL55" s="60" t="e"/>
-      <c r="AM55" s="60" t="e"/>
-      <c r="AN55" s="60" t="e"/>
-      <c r="AO55" s="60" t="e"/>
-      <c r="AP55" s="60" t="e"/>
-      <c r="AQ55" s="60" t="e"/>
-    </row>
-    <row r="56" ht="13" customHeight="true">
-      <c r="B56" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="62" t="e"/>
-      <c r="D56" s="62" t="e"/>
-      <c r="E56" s="62" t="e"/>
-      <c r="F56" s="62" t="e"/>
-      <c r="G56" s="62" t="e"/>
-      <c r="H56" s="62" t="e"/>
-      <c r="I56" s="62" t="e"/>
-      <c r="J56" s="62" t="e"/>
-      <c r="K56" s="62" t="e"/>
-      <c r="L56" s="62" t="e"/>
-      <c r="M56" s="62" t="e"/>
-      <c r="N56" s="62" t="e"/>
-      <c r="O56" s="62" t="e"/>
-      <c r="P56" s="62" t="e"/>
-      <c r="Q56" s="62" t="e"/>
-      <c r="R56" s="62" t="e"/>
-      <c r="S56" s="62" t="e"/>
-      <c r="T56" s="62" t="e"/>
-      <c r="U56" s="62" t="e"/>
-      <c r="V56" s="62" t="e"/>
-      <c r="W56" s="62" t="e"/>
-      <c r="X56" s="62" t="e"/>
-      <c r="Y56" s="62" t="e"/>
-      <c r="Z56" s="62" t="e"/>
-      <c r="AA56" s="62" t="e"/>
-      <c r="AB56" s="62" t="e"/>
-      <c r="AC56" s="62" t="e"/>
-      <c r="AD56" s="62" t="e"/>
-      <c r="AE56" s="62" t="e"/>
-      <c r="AF56" s="62" t="e"/>
-      <c r="AG56" s="62" t="e"/>
-      <c r="AH56" s="62" t="e"/>
-      <c r="AI56" s="62" t="e"/>
-      <c r="AJ56" s="62" t="e"/>
-      <c r="AK56" s="62" t="e"/>
-      <c r="AL56" s="62" t="e"/>
-      <c r="AM56" s="62" t="e"/>
-      <c r="AN56" s="62" t="e"/>
-      <c r="AO56" s="62" t="e"/>
-      <c r="AP56" s="62" t="e"/>
-      <c r="AQ56" s="62" t="e"/>
-    </row>
-    <row r="57" ht="13" customHeight="true">
-      <c r="B57" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="63" t="e"/>
-      <c r="D57" s="63" t="e"/>
-      <c r="E57" s="63" t="e"/>
-      <c r="F57" s="63" t="e"/>
-      <c r="G57" s="63" t="e"/>
-      <c r="H57" s="63" t="e"/>
-      <c r="I57" s="63" t="e"/>
-      <c r="J57" s="63" t="e"/>
-      <c r="K57" s="63" t="e"/>
-      <c r="L57" s="63" t="e"/>
-      <c r="M57" s="63" t="e"/>
-      <c r="N57" s="63" t="e"/>
-      <c r="O57" s="63" t="e"/>
-      <c r="P57" s="63" t="e"/>
-      <c r="Q57" s="63" t="e"/>
-      <c r="R57" s="63" t="e"/>
-      <c r="S57" s="63" t="e"/>
-      <c r="T57" s="63" t="e"/>
-      <c r="U57" s="63" t="e"/>
-      <c r="V57" s="63" t="e"/>
-      <c r="W57" s="63" t="e"/>
-      <c r="X57" s="63" t="e"/>
-      <c r="Y57" s="63" t="e"/>
-      <c r="Z57" s="63" t="e"/>
-      <c r="AA57" s="63" t="e"/>
-      <c r="AB57" s="63" t="e"/>
-      <c r="AC57" s="63" t="e"/>
-      <c r="AD57" s="63" t="e"/>
-      <c r="AE57" s="63" t="e"/>
-      <c r="AF57" s="63" t="e"/>
-      <c r="AG57" s="63" t="e"/>
-      <c r="AH57" s="63" t="e"/>
-      <c r="AI57" s="63" t="e"/>
-      <c r="AJ57" s="63" t="e"/>
-      <c r="AK57" s="63" t="e"/>
-      <c r="AL57" s="63" t="e"/>
-      <c r="AM57" s="63" t="e"/>
-      <c r="AN57" s="63" t="e"/>
-      <c r="AO57" s="63" t="e"/>
-      <c r="AP57" s="63" t="e"/>
-      <c r="AQ57" s="63" t="e"/>
-    </row>
-    <row r="58" ht="7" customHeight="true" s="1" customFormat="true"/>
-    <row r="59" ht="7" customHeight="true" s="1" customFormat="true">
-      <c r="B59" s="58" t="e"/>
-      <c r="C59" s="58" t="e"/>
-      <c r="D59" s="58" t="e"/>
-      <c r="E59" s="58" t="e"/>
-      <c r="F59" s="58" t="e"/>
-      <c r="G59" s="58" t="e"/>
-      <c r="H59" s="58" t="e"/>
-      <c r="I59" s="58" t="e"/>
-      <c r="J59" s="58" t="e"/>
-      <c r="K59" s="58" t="e"/>
-      <c r="L59" s="58" t="e"/>
-      <c r="M59" s="58" t="e"/>
-      <c r="N59" s="58" t="e"/>
-      <c r="O59" s="58" t="e"/>
-      <c r="P59" s="58" t="e"/>
-      <c r="Q59" s="58" t="e"/>
-      <c r="R59" s="58" t="e"/>
-      <c r="S59" s="58" t="e"/>
-      <c r="T59" s="58" t="e"/>
-      <c r="U59" s="58" t="e"/>
-      <c r="V59" s="58" t="e"/>
-      <c r="W59" s="58" t="e"/>
-      <c r="X59" s="58" t="e"/>
-      <c r="Y59" s="58" t="e"/>
-      <c r="Z59" s="58" t="e"/>
-      <c r="AA59" s="58" t="e"/>
-      <c r="AB59" s="58" t="e"/>
-      <c r="AC59" s="58" t="e"/>
-      <c r="AD59" s="58" t="e"/>
-      <c r="AE59" s="58" t="e"/>
-      <c r="AF59" s="58" t="e"/>
-      <c r="AG59" s="58" t="e"/>
-      <c r="AH59" s="58" t="e"/>
-      <c r="AI59" s="58" t="e"/>
-      <c r="AJ59" s="58" t="e"/>
-      <c r="AK59" s="58" t="e"/>
-      <c r="AL59" s="58" t="e"/>
-      <c r="AM59" s="58" t="e"/>
-      <c r="AN59" s="58" t="e"/>
-      <c r="AO59" s="58" t="e"/>
-      <c r="AP59" s="58" t="e"/>
-      <c r="AQ59" s="58" t="e"/>
-    </row>
-    <row r="60" ht="11" customHeight="true"/>
-    <row r="61" ht="26" customHeight="true">
-      <c r="B61" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="64" t="e"/>
-      <c r="D61" s="64" t="e"/>
-      <c r="E61" s="64" t="e"/>
-      <c r="F61" s="64" t="e"/>
-      <c r="H61" s="65" t="e"/>
-      <c r="I61" s="65" t="e"/>
-      <c r="J61" s="65" t="e"/>
-      <c r="K61" s="65" t="e"/>
-      <c r="L61" s="65" t="e"/>
-      <c r="M61" s="65" t="e"/>
-      <c r="N61" s="65" t="e"/>
-      <c r="O61" s="65" t="e"/>
-      <c r="P61" s="65" t="e"/>
-      <c r="Q61" s="65" t="e"/>
-      <c r="R61" s="65" t="e"/>
-      <c r="S61" s="66" t="e"/>
-      <c r="V61" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="W61" s="67" t="e"/>
-      <c r="X61" s="67" t="e"/>
-      <c r="Y61" s="67" t="e"/>
-      <c r="Z61" s="67" t="e"/>
-      <c r="AA61" s="67" t="e"/>
-      <c r="AB61" s="67" t="e"/>
-      <c r="AC61" s="67" t="e"/>
-      <c r="AD61" s="67" t="e"/>
-      <c r="AE61" s="67" t="e"/>
-      <c r="AF61" s="67" t="e"/>
-      <c r="AG61" s="67" t="e"/>
-      <c r="AH61" s="67" t="e"/>
-      <c r="AI61" s="67" t="e"/>
-    </row>
-    <row r="62" ht="11" customHeight="true">
-      <c r="H62" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="I62" s="68" t="e"/>
-      <c r="J62" s="68" t="e"/>
-      <c r="K62" s="68" t="e"/>
-      <c r="L62" s="68" t="e"/>
-      <c r="M62" s="68" t="e"/>
-      <c r="N62" s="68" t="e"/>
-      <c r="O62" s="68" t="e"/>
-      <c r="P62" s="68" t="e"/>
-      <c r="Q62" s="68" t="e"/>
-      <c r="R62" s="68" t="e"/>
-      <c r="S62" s="68" t="e"/>
-      <c r="X62" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y62" s="68" t="e"/>
-      <c r="Z62" s="68" t="e"/>
-      <c r="AA62" s="68" t="e"/>
-      <c r="AB62" s="68" t="e"/>
-      <c r="AC62" s="68" t="e"/>
-      <c r="AD62" s="68" t="e"/>
-      <c r="AE62" s="68" t="e"/>
-      <c r="AF62" s="68" t="e"/>
-      <c r="AG62" s="68" t="e"/>
-      <c r="AH62" s="68" t="e"/>
-      <c r="AI62" s="68" t="e"/>
-    </row>
-    <row r="63" ht="13" customHeight="true"/>
-    <row r="64" ht="13" customHeight="true">
-      <c r="B64" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="H64" s="65" t="e"/>
-      <c r="I64" s="65" t="e"/>
-      <c r="J64" s="65" t="e"/>
-      <c r="K64" s="65" t="e"/>
-      <c r="L64" s="65" t="e"/>
-      <c r="M64" s="65" t="e"/>
-      <c r="N64" s="65" t="e"/>
-      <c r="O64" s="65" t="e"/>
-      <c r="P64" s="65" t="e"/>
-      <c r="Q64" s="65" t="e"/>
-      <c r="R64" s="65" t="e"/>
-      <c r="S64" s="66" t="e"/>
-      <c r="V64" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="W64" s="67" t="e"/>
-      <c r="X64" s="67" t="e"/>
-      <c r="Y64" s="67" t="e"/>
-      <c r="Z64" s="67" t="e"/>
-      <c r="AA64" s="67" t="e"/>
-      <c r="AB64" s="67" t="e"/>
-      <c r="AC64" s="67" t="e"/>
-      <c r="AD64" s="67" t="e"/>
-      <c r="AE64" s="67" t="e"/>
-      <c r="AF64" s="67" t="e"/>
-      <c r="AG64" s="67" t="e"/>
-      <c r="AH64" s="67" t="e"/>
-      <c r="AI64" s="67" t="e"/>
-    </row>
-    <row r="65" ht="11" customHeight="true">
-      <c r="H65" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="I65" s="68" t="e"/>
-      <c r="J65" s="68" t="e"/>
-      <c r="K65" s="68" t="e"/>
-      <c r="L65" s="68" t="e"/>
-      <c r="M65" s="68" t="e"/>
-      <c r="N65" s="68" t="e"/>
-      <c r="O65" s="68" t="e"/>
-      <c r="P65" s="68" t="e"/>
-      <c r="Q65" s="68" t="e"/>
-      <c r="R65" s="68" t="e"/>
-      <c r="S65" s="68" t="e"/>
-      <c r="X65" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y65" s="68" t="e"/>
-      <c r="Z65" s="68" t="e"/>
-      <c r="AA65" s="68" t="e"/>
-      <c r="AB65" s="68" t="e"/>
-      <c r="AC65" s="68" t="e"/>
-      <c r="AD65" s="68" t="e"/>
-      <c r="AE65" s="68" t="e"/>
-      <c r="AF65" s="68" t="e"/>
-      <c r="AG65" s="68" t="e"/>
-      <c r="AH65" s="68" t="e"/>
-      <c r="AI65" s="68" t="e"/>
-    </row>
-    <row r="66" ht="13" customHeight="true"/>
-    <row r="67" ht="13" customHeight="true"/>
-    <row r="68" ht="11" customHeight="true"/>
+      <c r="AD45" s="69" t="e"/>
+      <c r="AE45" s="69" t="e"/>
+      <c r="AF45" s="69" t="e"/>
+      <c r="AG45" s="69" t="e"/>
+      <c r="AH45" s="69" t="e"/>
+      <c r="AI45" s="69" t="e"/>
+      <c r="AJ45" s="69" t="e"/>
+      <c r="AK45" s="69" t="e"/>
+      <c r="AL45" s="69" t="e"/>
+      <c r="AM45" s="69" t="e"/>
+      <c r="AN45" s="69" t="e"/>
+      <c r="AO45" s="69" t="e"/>
+      <c r="AP45" s="69" t="e"/>
+      <c r="AQ45" s="69" t="e"/>
+    </row>
+    <row r="46" ht="13" customHeight="true"/>
+    <row r="47" ht="13" customHeight="true"/>
+    <row r="48" ht="11" customHeight="true"/>
   </sheetData>
-  <mergeCells count="265">
+  <mergeCells count="105">
     <mergeCell ref="G1:Z1"/>
     <mergeCell ref="B4:AQ4"/>
     <mergeCell ref="B5:S6"/>
@@ -3824,186 +2564,27 @@
     <mergeCell ref="AC30:AF30"/>
     <mergeCell ref="AG30:AJ30"/>
     <mergeCell ref="AK30:AR30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AB31"/>
-    <mergeCell ref="AC31:AF31"/>
-    <mergeCell ref="AG31:AJ31"/>
-    <mergeCell ref="AK31:AR31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AB32"/>
-    <mergeCell ref="AC32:AF32"/>
     <mergeCell ref="AG32:AJ32"/>
     <mergeCell ref="AK32:AR32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y33:AB33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="AG33:AJ33"/>
-    <mergeCell ref="AK33:AR33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AG34:AJ34"/>
-    <mergeCell ref="AK34:AR34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:S35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="AG35:AJ35"/>
-    <mergeCell ref="AK35:AR35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="AG36:AJ36"/>
-    <mergeCell ref="AK36:AR36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:S37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="AG37:AJ37"/>
-    <mergeCell ref="AK37:AR37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:S38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="AG38:AJ38"/>
-    <mergeCell ref="AK38:AR38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:S39"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y39:AB39"/>
-    <mergeCell ref="AC39:AF39"/>
-    <mergeCell ref="AG39:AJ39"/>
-    <mergeCell ref="AK39:AR39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="Y40:AB40"/>
-    <mergeCell ref="AC40:AF40"/>
-    <mergeCell ref="AG40:AJ40"/>
-    <mergeCell ref="AK40:AR40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:S41"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="Y41:AB41"/>
-    <mergeCell ref="AC41:AF41"/>
-    <mergeCell ref="AG41:AJ41"/>
-    <mergeCell ref="AK41:AR41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:S42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="Y42:AB42"/>
-    <mergeCell ref="AC42:AF42"/>
-    <mergeCell ref="AG42:AJ42"/>
-    <mergeCell ref="AK42:AR42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AB43"/>
-    <mergeCell ref="AC43:AF43"/>
-    <mergeCell ref="AG43:AJ43"/>
-    <mergeCell ref="AK43:AR43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AB44"/>
-    <mergeCell ref="AC44:AF44"/>
-    <mergeCell ref="AG44:AJ44"/>
-    <mergeCell ref="AK44:AR44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:S45"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AB45"/>
-    <mergeCell ref="AC45:AF45"/>
-    <mergeCell ref="AG45:AJ45"/>
-    <mergeCell ref="AK45:AR45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AB46"/>
-    <mergeCell ref="AC46:AF46"/>
-    <mergeCell ref="AG46:AJ46"/>
-    <mergeCell ref="AK46:AR46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AB47"/>
-    <mergeCell ref="AC47:AF47"/>
-    <mergeCell ref="AG47:AJ47"/>
-    <mergeCell ref="AK47:AR47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AB48"/>
-    <mergeCell ref="AC48:AF48"/>
-    <mergeCell ref="AG48:AJ48"/>
-    <mergeCell ref="AK48:AR48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:S49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AB49"/>
-    <mergeCell ref="AC49:AF49"/>
-    <mergeCell ref="AG49:AJ49"/>
-    <mergeCell ref="AK49:AR49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:S50"/>
-    <mergeCell ref="T50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AB50"/>
-    <mergeCell ref="AC50:AF50"/>
-    <mergeCell ref="AG50:AJ50"/>
-    <mergeCell ref="AK50:AR50"/>
-    <mergeCell ref="AG52:AJ52"/>
-    <mergeCell ref="AK52:AR52"/>
-    <mergeCell ref="AK53:AQ53"/>
-    <mergeCell ref="AK54:AQ54"/>
-    <mergeCell ref="AE55:AJ55"/>
-    <mergeCell ref="AK55:AQ55"/>
-    <mergeCell ref="B56:AQ56"/>
-    <mergeCell ref="B57:AQ57"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="V61:AI61"/>
-    <mergeCell ref="H62:S62"/>
-    <mergeCell ref="X62:AI62"/>
-    <mergeCell ref="V64:AI64"/>
-    <mergeCell ref="H65:S65"/>
-    <mergeCell ref="X65:AI65"/>
+    <mergeCell ref="AK33:AQ33"/>
+    <mergeCell ref="AK34:AQ34"/>
+    <mergeCell ref="AE35:AJ35"/>
+    <mergeCell ref="AK35:AQ35"/>
+    <mergeCell ref="B36:AQ36"/>
+    <mergeCell ref="B37:AQ37"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="AA41:AQ41"/>
+    <mergeCell ref="M42:X42"/>
+    <mergeCell ref="AC42:AQ42"/>
+    <mergeCell ref="AA44:AQ44"/>
+    <mergeCell ref="M45:X45"/>
+    <mergeCell ref="AC45:AQ45"/>
   </mergeCells>
-  <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0.393700787401574803149606299" footer="0.393700787401574803149606299"/>
-  <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait"/>
+  <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
+  <pageSetup blackAndWhite="false" fitToHeight="0" fitToWidth="1" pageOrder="overThenDown" orientation="portrait" paperSize="9" useFirstPageNumber="true" firstPageNumber="1"/>
   <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId5"/>
 </worksheet>
 </file>